--- a/medicine/Psychotrope/Beerfest/Beerfest.xlsx
+++ b/medicine/Psychotrope/Beerfest/Beerfest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beerfest (Le Festi-Bière au Québec) est une comédie américaine de Jay Chandrasekhar, sortie en 2006, dont le thème central est une compétition de buveurs de bière. Le film a été réalisé par le groupe Broken Lizard et a été tourné à Albuquerque, au Nouveau-Mexique.
 </t>
@@ -511,7 +523,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite de la mort de leur grand-père Johann von Wolfhausen (Donald Sutherland), les frères Jan et Todd Wolfhouse (Paul Soter et Erik Stolhanske) doivent ramener ses cendres à Munich, en Allemagne, durant l'Oktoberfest.
 On les amène à une compétition secrète de buveurs de bière, la Beerfest. Ils y découvrent qu'ils seraient les descendants illégitimes de la famille Wolfhausen et se font humilier publiquement.
@@ -544,9 +558,11 @@
           <t>Potfest</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Broken Lizard termine le film sur le début d'une compétition de fumage de cannabis à Amsterdam avec l'annonce que le film Potfest arrive bientôt. Au départ une blague, le groupe, devant l'enthousiasme de fans, parle de le réaliser sous forme d'un film d'animation[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Broken Lizard termine le film sur le début d'une compétition de fumage de cannabis à Amsterdam avec l'annonce que le film Potfest arrive bientôt. Au départ une blague, le groupe, devant l'enthousiasme de fans, parle de le réaliser sous forme d'un film d'animation.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Réalisation :Jay Chandrasekhar
 Scénario :Jay Chandrasekhar, Kevin Heffernan, Steve Lemme, Paul Soter et Erik Stolhanske
@@ -616,7 +634,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>M. C. Gainey : Le prêtre
 Paul Soter (VQ : Patrice Dubois) : Jan Wolfhouse
@@ -666,9 +686,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a reçu un accueil mitigé de la critique. Il obtient un score moyen de 46 % sur Metacritic[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a reçu un accueil mitigé de la critique. Il obtient un score moyen de 46 % sur Metacritic.
 </t>
         </is>
       </c>
